--- a/annotation_tamil_psych_verbs.xlsx
+++ b/annotation_tamil_psych_verbs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SadhanaOldlaptop\Velsadhana\Masterscourse\Linguistics Data Science\Sum sem 2023\Research project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D7BE6F-46F8-44C1-A7AC-76F37C0DE8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B386E14E-0994-41BC-93ED-ABF211AD9482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22611" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22610" uniqueCount="1491">
   <si>
     <t>ID</t>
   </si>
@@ -4884,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4970,13 +4970,13 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
@@ -5065,7 +5065,7 @@
         <v>10</v>
       </c>
       <c r="R3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -5242,7 +5242,7 @@
         <v>10</v>
       </c>
       <c r="R6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S6" t="s">
         <v>30</v>
@@ -5416,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R9" t="s">
         <v>36</v>
@@ -5537,7 +5537,7 @@
         <v>7</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S11" t="s">
         <v>30</v>
@@ -5593,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R12" t="s">
         <v>36</v>
@@ -6009,7 +6009,7 @@
         <v>5</v>
       </c>
       <c r="R19" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S19" t="s">
         <v>30</v>
@@ -6363,7 +6363,7 @@
         <v>12</v>
       </c>
       <c r="R25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S25" t="s">
         <v>30</v>
@@ -6776,7 +6776,7 @@
         <v>8</v>
       </c>
       <c r="R32" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s">
         <v>30</v>
@@ -6835,7 +6835,7 @@
         <v>3</v>
       </c>
       <c r="R33" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S33" t="s">
         <v>30</v>
@@ -6894,7 +6894,7 @@
         <v>21</v>
       </c>
       <c r="R34" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S34" t="s">
         <v>30</v>
@@ -7186,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R39" t="s">
         <v>36</v>
@@ -7248,7 +7248,7 @@
         <v>8</v>
       </c>
       <c r="R40" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S40" t="s">
         <v>30</v>
@@ -7838,7 +7838,7 @@
         <v>14</v>
       </c>
       <c r="R50" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S50" t="s">
         <v>30</v>
@@ -7897,7 +7897,7 @@
         <v>5</v>
       </c>
       <c r="R51" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S51" t="s">
         <v>30</v>
@@ -8127,7 +8127,7 @@
         <v>29</v>
       </c>
       <c r="P55">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -8304,7 +8304,7 @@
         <v>29</v>
       </c>
       <c r="P58">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q58">
         <v>12</v>
@@ -8841,7 +8841,7 @@
         <v>6</v>
       </c>
       <c r="R67" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S67" t="s">
         <v>30</v>
@@ -9012,7 +9012,7 @@
         <v>29</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -9313,7 +9313,7 @@
         <v>7</v>
       </c>
       <c r="R75" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S75" t="s">
         <v>30</v>
@@ -10434,7 +10434,7 @@
         <v>4</v>
       </c>
       <c r="R94" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S94" t="s">
         <v>30</v>
@@ -10670,7 +10670,7 @@
         <v>7</v>
       </c>
       <c r="R98" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="S98" t="s">
         <v>30</v>
@@ -10847,7 +10847,7 @@
         <v>6</v>
       </c>
       <c r="R101" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S101" t="s">
         <v>30</v>
@@ -11201,7 +11201,7 @@
         <v>16</v>
       </c>
       <c r="R107" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S107" t="s">
         <v>30</v>
@@ -11319,7 +11319,7 @@
         <v>15</v>
       </c>
       <c r="R109" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S109" t="s">
         <v>30</v>
@@ -11496,7 +11496,7 @@
         <v>17</v>
       </c>
       <c r="R112" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S112" t="s">
         <v>30</v>
@@ -11611,10 +11611,10 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R114" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S114" t="s">
         <v>30</v>
@@ -11968,7 +11968,7 @@
         <v>8</v>
       </c>
       <c r="R120" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S120" t="s">
         <v>30</v>
@@ -12145,7 +12145,7 @@
         <v>13</v>
       </c>
       <c r="R123" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S123" t="s">
         <v>30</v>
@@ -12322,7 +12322,7 @@
         <v>8</v>
       </c>
       <c r="R126" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S126" t="s">
         <v>30</v>
@@ -12440,7 +12440,7 @@
         <v>8</v>
       </c>
       <c r="R128" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S128" t="s">
         <v>30</v>
@@ -12853,7 +12853,7 @@
         <v>10</v>
       </c>
       <c r="R135" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S135" t="s">
         <v>30</v>
@@ -12876,13 +12876,13 @@
         <v>21</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
         <v>22</v>
       </c>
       <c r="H136" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I136" t="s">
         <v>24</v>
@@ -12906,7 +12906,7 @@
         <v>29</v>
       </c>
       <c r="P136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -13496,7 +13496,7 @@
         <v>29</v>
       </c>
       <c r="P146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q146">
         <v>10</v>
@@ -14328,7 +14328,7 @@
         <v>13</v>
       </c>
       <c r="R160" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S160" t="s">
         <v>30</v>
@@ -15331,7 +15331,7 @@
         <v>7</v>
       </c>
       <c r="R177" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S177" t="s">
         <v>30</v>
@@ -16800,13 +16800,13 @@
         <v>29</v>
       </c>
       <c r="P202">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q202">
         <v>6</v>
       </c>
       <c r="R202" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S202" t="s">
         <v>30</v>
@@ -17154,7 +17154,7 @@
         <v>22</v>
       </c>
       <c r="P208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q208">
         <v>1</v>
@@ -18458,7 +18458,7 @@
         <v>4</v>
       </c>
       <c r="R230" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S230" t="s">
         <v>30</v>
@@ -18924,7 +18924,7 @@
         <v>29</v>
       </c>
       <c r="P238">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q238">
         <v>7</v>
@@ -21815,7 +21815,7 @@
         <v>29</v>
       </c>
       <c r="P287">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q287">
         <v>3</v>
@@ -23296,7 +23296,7 @@
         <v>16</v>
       </c>
       <c r="R312" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S312" t="s">
         <v>30</v>
@@ -24381,13 +24381,13 @@
         <v>21</v>
       </c>
       <c r="F331" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G331" t="s">
         <v>22</v>
       </c>
       <c r="H331" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I331" t="s">
         <v>24</v>
@@ -24411,7 +24411,7 @@
         <v>29</v>
       </c>
       <c r="P331">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q331">
         <v>5</v>
@@ -24741,7 +24741,7 @@
         <v>22</v>
       </c>
       <c r="H337" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I337" t="s">
         <v>24</v>
@@ -25148,13 +25148,13 @@
         <v>21</v>
       </c>
       <c r="F344" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G344" t="s">
         <v>22</v>
       </c>
       <c r="H344" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I344" t="s">
         <v>24</v>
@@ -25178,7 +25178,7 @@
         <v>29</v>
       </c>
       <c r="P344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q344">
         <v>6</v>
@@ -25420,7 +25420,7 @@
         <v>14</v>
       </c>
       <c r="R348" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S348" t="s">
         <v>30</v>
@@ -26004,7 +26004,7 @@
         <v>29</v>
       </c>
       <c r="P358">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q358">
         <v>5</v>
@@ -27390,13 +27390,13 @@
         <v>21</v>
       </c>
       <c r="F382" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G382" t="s">
         <v>22</v>
       </c>
       <c r="H382" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I382" t="s">
         <v>42</v>
@@ -27420,7 +27420,7 @@
         <v>29</v>
       </c>
       <c r="P382">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q382">
         <v>4</v>
@@ -29455,13 +29455,13 @@
         <v>21</v>
       </c>
       <c r="F417" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G417" t="s">
         <v>22</v>
       </c>
       <c r="H417" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I417" t="s">
         <v>24</v>
@@ -29479,13 +29479,13 @@
         <v>28</v>
       </c>
       <c r="N417" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O417" t="s">
         <v>29</v>
       </c>
       <c r="P417">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q417">
         <v>6</v>
@@ -29668,7 +29668,7 @@
         <v>22</v>
       </c>
       <c r="R420" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S420" t="s">
         <v>30</v>
@@ -30222,13 +30222,13 @@
         <v>21</v>
       </c>
       <c r="F430" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G430" t="s">
         <v>22</v>
       </c>
       <c r="H430" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I430" t="s">
         <v>42</v>
@@ -30252,7 +30252,7 @@
         <v>29</v>
       </c>
       <c r="P430">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q430">
         <v>2</v>
@@ -31435,10 +31435,10 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R450" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S450" t="s">
         <v>30</v>
@@ -31815,13 +31815,13 @@
         <v>21</v>
       </c>
       <c r="F457" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G457" t="s">
         <v>22</v>
       </c>
       <c r="H457" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I457" t="s">
         <v>24</v>
@@ -31845,7 +31845,7 @@
         <v>29</v>
       </c>
       <c r="P457">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q457">
         <v>8</v>
@@ -32258,7 +32258,7 @@
         <v>29</v>
       </c>
       <c r="P464">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q464">
         <v>5</v>
@@ -32464,7 +32464,7 @@
         <v>32</v>
       </c>
       <c r="F468" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G468" t="s">
         <v>22</v>
@@ -32795,7 +32795,7 @@
         <v>8</v>
       </c>
       <c r="R473" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S473" t="s">
         <v>30</v>
@@ -33202,7 +33202,7 @@
         <v>29</v>
       </c>
       <c r="P480">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q480">
         <v>4</v>
@@ -33467,13 +33467,13 @@
         <v>21</v>
       </c>
       <c r="F485" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G485" t="s">
         <v>22</v>
       </c>
       <c r="H485" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I485" t="s">
         <v>24</v>
@@ -33497,7 +33497,7 @@
         <v>29</v>
       </c>
       <c r="P485">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q485">
         <v>1</v>
@@ -33591,7 +33591,7 @@
         <v>22</v>
       </c>
       <c r="H487" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I487" t="s">
         <v>42</v>
@@ -33650,7 +33650,7 @@
         <v>22</v>
       </c>
       <c r="H488" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I488" t="s">
         <v>24</v>
@@ -34712,7 +34712,7 @@
         <v>22</v>
       </c>
       <c r="H506" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I506" t="s">
         <v>24</v>
@@ -35774,7 +35774,7 @@
         <v>29</v>
       </c>
       <c r="H524" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I524" t="s">
         <v>24</v>
@@ -35981,7 +35981,7 @@
         <v>8</v>
       </c>
       <c r="R527" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S527" t="s">
         <v>30</v>
@@ -36689,7 +36689,7 @@
         <v>4</v>
       </c>
       <c r="R539" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="S539" t="s">
         <v>30</v>
@@ -37332,7 +37332,7 @@
         <v>29</v>
       </c>
       <c r="P550">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q550">
         <v>5</v>
@@ -37574,7 +37574,7 @@
         <v>13</v>
       </c>
       <c r="R554" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S554" t="s">
         <v>30</v>
@@ -37633,7 +37633,7 @@
         <v>8</v>
       </c>
       <c r="R555" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S555" t="s">
         <v>30</v>
@@ -37692,7 +37692,7 @@
         <v>19</v>
       </c>
       <c r="R556" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S556" t="s">
         <v>30</v>
@@ -37869,7 +37869,7 @@
         <v>16</v>
       </c>
       <c r="R559" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S559" t="s">
         <v>30</v>
@@ -37957,7 +37957,7 @@
         <v>29</v>
       </c>
       <c r="H561" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I561" t="s">
         <v>24</v>
@@ -38046,7 +38046,7 @@
         <v>9</v>
       </c>
       <c r="R562" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S562" t="s">
         <v>30</v>
@@ -38223,7 +38223,7 @@
         <v>11</v>
       </c>
       <c r="R565" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S565" t="s">
         <v>30</v>
@@ -38282,7 +38282,7 @@
         <v>15</v>
       </c>
       <c r="R566" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S566" t="s">
         <v>30</v>
@@ -38813,7 +38813,7 @@
         <v>9</v>
       </c>
       <c r="R575" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S575" t="s">
         <v>30</v>
@@ -38931,7 +38931,7 @@
         <v>8</v>
       </c>
       <c r="R577" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S577" t="s">
         <v>30</v>
@@ -39108,7 +39108,7 @@
         <v>6</v>
       </c>
       <c r="R580" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S580" t="s">
         <v>30</v>
@@ -39131,13 +39131,13 @@
         <v>21</v>
       </c>
       <c r="F581" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G581" t="s">
         <v>22</v>
       </c>
       <c r="H581" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I581" t="s">
         <v>24</v>
@@ -39155,13 +39155,13 @@
         <v>28</v>
       </c>
       <c r="N581" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O581" t="s">
         <v>29</v>
       </c>
       <c r="P581">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q581">
         <v>9</v>
@@ -39403,7 +39403,7 @@
         <v>17</v>
       </c>
       <c r="R585" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S585" t="s">
         <v>30</v>
@@ -39456,7 +39456,7 @@
         <v>29</v>
       </c>
       <c r="P586">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q586">
         <v>3</v>
@@ -39875,7 +39875,7 @@
         <v>11</v>
       </c>
       <c r="R593" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S593" t="s">
         <v>30</v>
@@ -40347,7 +40347,7 @@
         <v>4</v>
       </c>
       <c r="R601" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S601" t="s">
         <v>30</v>
@@ -40429,13 +40429,13 @@
         <v>21</v>
       </c>
       <c r="F603" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G603" t="s">
         <v>22</v>
       </c>
       <c r="H603" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I603" t="s">
         <v>24</v>
@@ -40459,13 +40459,13 @@
         <v>29</v>
       </c>
       <c r="P603">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q603">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R603" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S603" t="s">
         <v>30</v>
@@ -40524,7 +40524,7 @@
         <v>16</v>
       </c>
       <c r="R604" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S604" t="s">
         <v>30</v>
@@ -40996,7 +40996,7 @@
         <v>15</v>
       </c>
       <c r="R612" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S612" t="s">
         <v>30</v>
@@ -41114,7 +41114,7 @@
         <v>5</v>
       </c>
       <c r="R614" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S614" t="s">
         <v>30</v>
@@ -41232,7 +41232,7 @@
         <v>5</v>
       </c>
       <c r="R616" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S616" t="s">
         <v>30</v>
@@ -41468,7 +41468,7 @@
         <v>10</v>
       </c>
       <c r="R620" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S620" t="s">
         <v>30</v>
@@ -41586,7 +41586,7 @@
         <v>11</v>
       </c>
       <c r="R622" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S622" t="s">
         <v>30</v>
@@ -41881,7 +41881,7 @@
         <v>18</v>
       </c>
       <c r="R627" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S627" t="s">
         <v>30</v>
@@ -42058,7 +42058,7 @@
         <v>6</v>
       </c>
       <c r="R630" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S630" t="s">
         <v>30</v>
@@ -42176,7 +42176,7 @@
         <v>5</v>
       </c>
       <c r="R632" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S632" t="s">
         <v>30</v>
@@ -42235,7 +42235,7 @@
         <v>5</v>
       </c>
       <c r="R633" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S633" t="s">
         <v>30</v>
@@ -42615,7 +42615,7 @@
         <v>29</v>
       </c>
       <c r="G640" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H640" t="s">
         <v>39</v>
@@ -42624,10 +42624,10 @@
         <v>24</v>
       </c>
       <c r="J640" t="s">
-        <v>177</v>
+        <v>620</v>
       </c>
       <c r="K640" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="L640" t="s">
         <v>27</v>
@@ -42707,7 +42707,7 @@
         <v>11</v>
       </c>
       <c r="R641" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S641" t="s">
         <v>30</v>
@@ -42766,7 +42766,7 @@
         <v>18</v>
       </c>
       <c r="R642" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S642" t="s">
         <v>30</v>
@@ -42884,7 +42884,7 @@
         <v>7</v>
       </c>
       <c r="R644" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S644" t="s">
         <v>30</v>
@@ -42943,7 +42943,7 @@
         <v>8</v>
       </c>
       <c r="R645" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S645" t="s">
         <v>30</v>
@@ -43120,7 +43120,7 @@
         <v>11</v>
       </c>
       <c r="R648" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S648" t="s">
         <v>30</v>
@@ -43356,7 +43356,7 @@
         <v>13</v>
       </c>
       <c r="R652" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S652" t="s">
         <v>30</v>
@@ -43415,7 +43415,7 @@
         <v>15</v>
       </c>
       <c r="R653" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S653" t="s">
         <v>30</v>
@@ -43474,7 +43474,7 @@
         <v>9</v>
       </c>
       <c r="R654" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S654" t="s">
         <v>30</v>
@@ -43651,7 +43651,7 @@
         <v>11</v>
       </c>
       <c r="R657" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S657" t="s">
         <v>30</v>
@@ -43710,7 +43710,7 @@
         <v>13</v>
       </c>
       <c r="R658" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S658" t="s">
         <v>30</v>
@@ -44353,7 +44353,7 @@
         <v>29</v>
       </c>
       <c r="P669">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q669">
         <v>6</v>
@@ -44412,7 +44412,7 @@
         <v>29</v>
       </c>
       <c r="P670">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q670">
         <v>2</v>
@@ -44713,7 +44713,7 @@
         <v>13</v>
       </c>
       <c r="R675" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S675" t="s">
         <v>30</v>
@@ -45008,7 +45008,7 @@
         <v>4</v>
       </c>
       <c r="R680" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S680" t="s">
         <v>30</v>
@@ -45421,7 +45421,7 @@
         <v>14</v>
       </c>
       <c r="R687" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S687" t="s">
         <v>30</v>
@@ -45657,7 +45657,7 @@
         <v>12</v>
       </c>
       <c r="R691" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S691" t="s">
         <v>30</v>
@@ -45716,7 +45716,7 @@
         <v>23</v>
       </c>
       <c r="R692" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S692" t="s">
         <v>30</v>
@@ -45775,7 +45775,7 @@
         <v>5</v>
       </c>
       <c r="R693" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S693" t="s">
         <v>30</v>
@@ -45893,7 +45893,7 @@
         <v>11</v>
       </c>
       <c r="R695" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S695" t="s">
         <v>30</v>
@@ -46070,7 +46070,7 @@
         <v>12</v>
       </c>
       <c r="R698" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S698" t="s">
         <v>30</v>
@@ -46483,7 +46483,7 @@
         <v>10</v>
       </c>
       <c r="R705" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S705" t="s">
         <v>30</v>
@@ -46601,7 +46601,7 @@
         <v>6</v>
       </c>
       <c r="R707" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S707" t="s">
         <v>30</v>
@@ -47250,7 +47250,7 @@
         <v>10</v>
       </c>
       <c r="R718" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S718" t="s">
         <v>30</v>
@@ -47427,7 +47427,7 @@
         <v>5</v>
       </c>
       <c r="R721" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S721" t="s">
         <v>30</v>
@@ -47604,7 +47604,7 @@
         <v>8</v>
       </c>
       <c r="R724" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S724" t="s">
         <v>30</v>
@@ -47863,13 +47863,13 @@
         <v>21</v>
       </c>
       <c r="F729" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G729" t="s">
         <v>22</v>
       </c>
       <c r="H729" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I729" t="s">
         <v>24</v>
@@ -47887,13 +47887,13 @@
         <v>28</v>
       </c>
       <c r="N729" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O729" t="s">
         <v>29</v>
       </c>
       <c r="P729">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q729">
         <v>3</v>
@@ -48017,7 +48017,7 @@
         <v>8</v>
       </c>
       <c r="R731" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S731" t="s">
         <v>30</v>
@@ -48076,7 +48076,7 @@
         <v>6</v>
       </c>
       <c r="R732" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S732" t="s">
         <v>30</v>
@@ -48135,7 +48135,7 @@
         <v>5</v>
       </c>
       <c r="R733" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S733" t="s">
         <v>30</v>
@@ -48312,7 +48312,7 @@
         <v>6</v>
       </c>
       <c r="R736" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="S736" t="s">
         <v>30</v>
@@ -48843,7 +48843,7 @@
         <v>7</v>
       </c>
       <c r="R745" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S745" t="s">
         <v>30</v>
@@ -49102,13 +49102,13 @@
         <v>21</v>
       </c>
       <c r="F750" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G750" t="s">
         <v>22</v>
       </c>
       <c r="H750" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I750" t="s">
         <v>24</v>
@@ -49132,7 +49132,7 @@
         <v>29</v>
       </c>
       <c r="P750">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q750">
         <v>2</v>
@@ -49964,7 +49964,7 @@
         <v>5</v>
       </c>
       <c r="R764" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S764" t="s">
         <v>30</v>
@@ -50023,7 +50023,7 @@
         <v>4</v>
       </c>
       <c r="R765" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S765" t="s">
         <v>30</v>
@@ -50436,7 +50436,7 @@
         <v>9</v>
       </c>
       <c r="R772" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S772" t="s">
         <v>30</v>
@@ -51439,7 +51439,7 @@
         <v>5</v>
       </c>
       <c r="R789" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S789" t="s">
         <v>30</v>
@@ -51905,7 +51905,7 @@
         <v>29</v>
       </c>
       <c r="P797">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q797">
         <v>13</v>
@@ -52170,13 +52170,13 @@
         <v>21</v>
       </c>
       <c r="F802" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G802" t="s">
         <v>22</v>
       </c>
       <c r="H802" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I802" t="s">
         <v>24</v>
@@ -52200,7 +52200,7 @@
         <v>29</v>
       </c>
       <c r="P802">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q802">
         <v>4</v>
@@ -52501,7 +52501,7 @@
         <v>14</v>
       </c>
       <c r="R807" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S807" t="s">
         <v>30</v>
@@ -52849,7 +52849,7 @@
         <v>29</v>
       </c>
       <c r="P813">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q813">
         <v>1</v>
@@ -53032,7 +53032,7 @@
         <v>5</v>
       </c>
       <c r="R816" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S816" t="s">
         <v>30</v>
@@ -53445,7 +53445,7 @@
         <v>9</v>
       </c>
       <c r="R823" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S823" t="s">
         <v>30</v>
@@ -53468,13 +53468,13 @@
         <v>21</v>
       </c>
       <c r="F824" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G824" t="s">
         <v>22</v>
       </c>
       <c r="H824" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I824" t="s">
         <v>24</v>
@@ -53498,7 +53498,7 @@
         <v>29</v>
       </c>
       <c r="P824">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q824">
         <v>4</v>
@@ -53675,7 +53675,7 @@
         <v>29</v>
       </c>
       <c r="P827">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q827">
         <v>3</v>
@@ -53911,7 +53911,7 @@
         <v>29</v>
       </c>
       <c r="P831">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q831">
         <v>8</v>
@@ -54147,7 +54147,7 @@
         <v>29</v>
       </c>
       <c r="P835">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q835">
         <v>2</v>
@@ -54920,7 +54920,7 @@
         <v>14</v>
       </c>
       <c r="R848" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="S848" t="s">
         <v>30</v>
@@ -55067,7 +55067,7 @@
         <v>22</v>
       </c>
       <c r="H851" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I851" t="s">
         <v>24</v>
@@ -55327,7 +55327,7 @@
         <v>29</v>
       </c>
       <c r="P855">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q855">
         <v>4</v>
@@ -55474,13 +55474,13 @@
         <v>21</v>
       </c>
       <c r="F858" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G858" t="s">
         <v>22</v>
       </c>
       <c r="H858" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I858" t="s">
         <v>24</v>
@@ -55504,7 +55504,7 @@
         <v>29</v>
       </c>
       <c r="P858">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q858">
         <v>2</v>
@@ -55592,16 +55592,16 @@
         <v>21</v>
       </c>
       <c r="F860" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G860" t="s">
         <v>29</v>
       </c>
       <c r="H860" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I860" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J860" t="s">
         <v>609</v>
@@ -55622,7 +55622,7 @@
         <v>29</v>
       </c>
       <c r="P860">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q860">
         <v>6</v>
@@ -55896,7 +55896,7 @@
         <v>23</v>
       </c>
       <c r="I865" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J865" t="s">
         <v>609</v>
@@ -55917,7 +55917,7 @@
         <v>29</v>
       </c>
       <c r="P865">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q865">
         <v>2</v>
@@ -56271,7 +56271,7 @@
         <v>29</v>
       </c>
       <c r="P871">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q871">
         <v>3</v>
@@ -56359,13 +56359,13 @@
         <v>21</v>
       </c>
       <c r="F873" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G873" t="s">
         <v>22</v>
       </c>
       <c r="H873" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I873" t="s">
         <v>24</v>
@@ -56389,7 +56389,7 @@
         <v>29</v>
       </c>
       <c r="P873">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q873">
         <v>12</v>
@@ -56418,7 +56418,7 @@
         <v>21</v>
       </c>
       <c r="F874" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G874" t="s">
         <v>22</v>
@@ -56448,7 +56448,7 @@
         <v>29</v>
       </c>
       <c r="P874">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q874">
         <v>3</v>
@@ -56631,7 +56631,7 @@
         <v>4</v>
       </c>
       <c r="R877" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S877" t="s">
         <v>30</v>
@@ -56713,13 +56713,13 @@
         <v>21</v>
       </c>
       <c r="F879" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G879" t="s">
         <v>22</v>
       </c>
       <c r="H879" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I879" t="s">
         <v>24</v>
@@ -56743,7 +56743,7 @@
         <v>29</v>
       </c>
       <c r="P879">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q879">
         <v>2</v>
@@ -56890,13 +56890,13 @@
         <v>21</v>
       </c>
       <c r="F882" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G882" t="s">
         <v>22</v>
       </c>
       <c r="H882" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I882" t="s">
         <v>24</v>
@@ -56920,7 +56920,7 @@
         <v>29</v>
       </c>
       <c r="P882">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q882">
         <v>4</v>
@@ -56979,7 +56979,7 @@
         <v>29</v>
       </c>
       <c r="P883">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q883">
         <v>3</v>
@@ -58631,7 +58631,7 @@
         <v>29</v>
       </c>
       <c r="P911">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q911">
         <v>2</v>
@@ -58749,7 +58749,7 @@
         <v>29</v>
       </c>
       <c r="P913">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q913">
         <v>3</v>
@@ -58896,13 +58896,13 @@
         <v>21</v>
       </c>
       <c r="F916" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G916" t="s">
         <v>22</v>
       </c>
       <c r="H916" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I916" t="s">
         <v>24</v>
@@ -58920,19 +58920,19 @@
         <v>28</v>
       </c>
       <c r="N916" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O916" t="s">
         <v>29</v>
       </c>
       <c r="P916">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q916">
         <v>5</v>
       </c>
       <c r="R916" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S916" t="s">
         <v>30</v>
@@ -59103,7 +59103,7 @@
         <v>29</v>
       </c>
       <c r="P919">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="Q919">
         <v>1</v>
@@ -59339,7 +59339,7 @@
         <v>29</v>
       </c>
       <c r="P923">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q923">
         <v>4</v>
@@ -59368,13 +59368,13 @@
         <v>21</v>
       </c>
       <c r="F924" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G924" t="s">
         <v>22</v>
       </c>
       <c r="H924" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I924" t="s">
         <v>24</v>
@@ -59398,7 +59398,7 @@
         <v>29</v>
       </c>
       <c r="P924">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q924">
         <v>2</v>
@@ -59640,7 +59640,7 @@
         <v>5</v>
       </c>
       <c r="R928" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S928" t="s">
         <v>30</v>
@@ -61345,7 +61345,7 @@
         <v>29</v>
       </c>
       <c r="P957">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q957">
         <v>3</v>
@@ -61758,7 +61758,7 @@
         <v>29</v>
       </c>
       <c r="P964">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q964">
         <v>3</v>
@@ -61935,7 +61935,7 @@
         <v>29</v>
       </c>
       <c r="P967">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q967">
         <v>1</v>
@@ -62082,13 +62082,13 @@
         <v>21</v>
       </c>
       <c r="F970" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G970" t="s">
         <v>22</v>
       </c>
       <c r="H970" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I970" t="s">
         <v>24</v>
@@ -62112,7 +62112,7 @@
         <v>29</v>
       </c>
       <c r="P970">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q970">
         <v>1</v>
@@ -62230,7 +62230,7 @@
         <v>29</v>
       </c>
       <c r="P972">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q972">
         <v>2</v>
@@ -62478,7 +62478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="977" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="4">
         <v>976</v>
       </c>
@@ -62596,7 +62596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="979" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:19" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="4">
         <v>978</v>
       </c>
@@ -62605,9 +62605,6 @@
       </c>
       <c r="C979" t="s">
         <v>1045</v>
-      </c>
-      <c r="D979" t="s">
-        <v>20</v>
       </c>
       <c r="E979" t="s">
         <v>21</v>
@@ -62708,7 +62705,7 @@
         <v>3</v>
       </c>
       <c r="R980" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S980" t="s">
         <v>30</v>
@@ -62832,7 +62829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="983" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:19" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="4">
         <v>982</v>
       </c>
@@ -62938,7 +62935,7 @@
         <v>29</v>
       </c>
       <c r="P984">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q984">
         <v>3</v>
@@ -63026,13 +63023,13 @@
         <v>21</v>
       </c>
       <c r="F986" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G986" t="s">
         <v>22</v>
       </c>
       <c r="H986" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I986" t="s">
         <v>24</v>
@@ -63056,7 +63053,7 @@
         <v>29</v>
       </c>
       <c r="P986">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q986">
         <v>4</v>
@@ -63121,7 +63118,7 @@
         <v>7</v>
       </c>
       <c r="R987" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S987" t="s">
         <v>30</v>
@@ -63144,13 +63141,13 @@
         <v>21</v>
       </c>
       <c r="F988" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G988" t="s">
         <v>22</v>
       </c>
       <c r="H988" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I988" t="s">
         <v>24</v>
@@ -63168,13 +63165,13 @@
         <v>28</v>
       </c>
       <c r="N988" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O988" t="s">
         <v>29</v>
       </c>
       <c r="P988">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q988">
         <v>3</v>
@@ -63327,7 +63324,7 @@
         <v>22</v>
       </c>
       <c r="H991" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I991" t="s">
         <v>24</v>
@@ -63534,7 +63531,7 @@
         <v>5</v>
       </c>
       <c r="R994" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S994" t="s">
         <v>30</v>
@@ -63705,7 +63702,7 @@
         <v>29</v>
       </c>
       <c r="P997">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="Q997">
         <v>1</v>
@@ -64059,7 +64056,7 @@
         <v>29</v>
       </c>
       <c r="P1003">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q1003">
         <v>2</v>
@@ -64383,13 +64380,13 @@
         <v>21</v>
       </c>
       <c r="F1009" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1009" t="s">
         <v>22</v>
       </c>
       <c r="H1009" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I1009" t="s">
         <v>24</v>
@@ -64413,7 +64410,7 @@
         <v>29</v>
       </c>
       <c r="P1009">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q1009">
         <v>2</v>
@@ -64472,7 +64469,7 @@
         <v>29</v>
       </c>
       <c r="P1010">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q1010">
         <v>2</v>
@@ -64537,7 +64534,7 @@
         <v>10</v>
       </c>
       <c r="R1011" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S1011" t="s">
         <v>30</v>
@@ -64655,7 +64652,7 @@
         <v>4</v>
       </c>
       <c r="R1013" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S1013" t="s">
         <v>30</v>
@@ -65215,7 +65212,7 @@
         <v>29</v>
       </c>
       <c r="H1023" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I1023" t="s">
         <v>24</v>
@@ -65422,7 +65419,7 @@
         <v>8</v>
       </c>
       <c r="R1026" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S1026" t="s">
         <v>30</v>
@@ -65445,13 +65442,13 @@
         <v>21</v>
       </c>
       <c r="F1027" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1027" t="s">
         <v>22</v>
       </c>
       <c r="H1027" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1027" t="s">
         <v>24</v>
@@ -65475,7 +65472,7 @@
         <v>29</v>
       </c>
       <c r="P1027">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q1027">
         <v>3</v>
@@ -66307,7 +66304,7 @@
         <v>11</v>
       </c>
       <c r="R1041" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S1041" t="s">
         <v>30</v>
@@ -66484,7 +66481,7 @@
         <v>8</v>
       </c>
       <c r="R1044" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S1044" t="s">
         <v>30</v>
@@ -66507,13 +66504,13 @@
         <v>21</v>
       </c>
       <c r="F1045" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1045" t="s">
         <v>22</v>
       </c>
       <c r="H1045" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1045" t="s">
         <v>24</v>
@@ -66537,7 +66534,7 @@
         <v>29</v>
       </c>
       <c r="P1045">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Q1045">
         <v>4</v>
@@ -66684,7 +66681,7 @@
         <v>21</v>
       </c>
       <c r="F1048" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G1048" t="s">
         <v>29</v>
@@ -67605,7 +67602,7 @@
         <v>15</v>
       </c>
       <c r="R1063" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S1063" t="s">
         <v>30</v>
@@ -68425,7 +68422,7 @@
         <v>29</v>
       </c>
       <c r="P1077">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q1077">
         <v>7</v>
@@ -68956,7 +68953,7 @@
         <v>29</v>
       </c>
       <c r="P1086">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q1086">
         <v>6</v>
@@ -68985,13 +68982,13 @@
         <v>21</v>
       </c>
       <c r="F1087" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1087" t="s">
         <v>22</v>
       </c>
       <c r="H1087" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I1087" t="s">
         <v>24</v>
@@ -69015,7 +69012,7 @@
         <v>29</v>
       </c>
       <c r="P1087">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q1087">
         <v>10</v>
@@ -69670,7 +69667,7 @@
         <v>13</v>
       </c>
       <c r="R1098" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S1098" t="s">
         <v>30</v>
@@ -69900,7 +69897,7 @@
         <v>29</v>
       </c>
       <c r="P1102">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q1102">
         <v>3</v>
@@ -70024,7 +70021,7 @@
         <v>18</v>
       </c>
       <c r="R1104" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S1104" t="s">
         <v>30</v>
@@ -70260,7 +70257,7 @@
         <v>3</v>
       </c>
       <c r="R1108" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S1108" t="s">
         <v>30</v>
@@ -70378,7 +70375,7 @@
         <v>7</v>
       </c>
       <c r="R1110" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S1110" t="s">
         <v>30</v>
@@ -71086,7 +71083,7 @@
         <v>9</v>
       </c>
       <c r="R1122" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S1122" t="s">
         <v>30</v>
@@ -71381,7 +71378,7 @@
         <v>6</v>
       </c>
       <c r="R1127" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S1127" t="s">
         <v>30</v>
@@ -71699,13 +71696,13 @@
         <v>21</v>
       </c>
       <c r="F1133" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1133" t="s">
         <v>22</v>
       </c>
       <c r="H1133" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1133" t="s">
         <v>24</v>
@@ -71723,13 +71720,13 @@
         <v>28</v>
       </c>
       <c r="N1133" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O1133" t="s">
         <v>29</v>
       </c>
       <c r="P1133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q1133">
         <v>2</v>
@@ -71853,7 +71850,7 @@
         <v>3</v>
       </c>
       <c r="R1135" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S1135" t="s">
         <v>30</v>
@@ -72561,7 +72558,7 @@
         <v>6</v>
       </c>
       <c r="R1147" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S1147" t="s">
         <v>30</v>
@@ -72620,7 +72617,7 @@
         <v>7</v>
       </c>
       <c r="R1148" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S1148" t="s">
         <v>30</v>
@@ -72938,13 +72935,13 @@
         <v>21</v>
       </c>
       <c r="F1154" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1154" t="s">
         <v>22</v>
       </c>
       <c r="H1154" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1154" t="s">
         <v>24</v>
@@ -72968,7 +72965,7 @@
         <v>29</v>
       </c>
       <c r="P1154">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q1154">
         <v>5</v>
@@ -73092,7 +73089,7 @@
         <v>4</v>
       </c>
       <c r="R1156" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S1156" t="s">
         <v>30</v>
@@ -73387,7 +73384,7 @@
         <v>7</v>
       </c>
       <c r="R1161" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S1161" t="s">
         <v>30</v>
@@ -73682,7 +73679,7 @@
         <v>7</v>
       </c>
       <c r="R1166" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S1166" t="s">
         <v>30</v>
@@ -74508,7 +74505,7 @@
         <v>12</v>
       </c>
       <c r="R1180" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="S1180" t="s">
         <v>30</v>
@@ -74862,7 +74859,7 @@
         <v>6</v>
       </c>
       <c r="R1186" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S1186" t="s">
         <v>30</v>
@@ -75213,7 +75210,7 @@
         <v>1</v>
       </c>
       <c r="Q1192">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="R1192" t="s">
         <v>36</v>
@@ -75393,7 +75390,7 @@
         <v>5</v>
       </c>
       <c r="R1195" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S1195" t="s">
         <v>30</v>
@@ -75829,13 +75826,13 @@
         <v>21</v>
       </c>
       <c r="F1203" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1203" t="s">
         <v>22</v>
       </c>
       <c r="H1203" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I1203" t="s">
         <v>24</v>
@@ -75853,13 +75850,13 @@
         <v>28</v>
       </c>
       <c r="N1203" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O1203" t="s">
         <v>29</v>
       </c>
       <c r="P1203">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q1203">
         <v>4</v>
@@ -76337,7 +76334,7 @@
         <v>18</v>
       </c>
       <c r="R1211" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S1211" t="s">
         <v>30</v>
@@ -76455,7 +76452,7 @@
         <v>5</v>
       </c>
       <c r="R1213" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="S1213" t="s">
         <v>30</v>
@@ -76508,7 +76505,7 @@
         <v>29</v>
       </c>
       <c r="P1214">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q1214">
         <v>7</v>
@@ -76537,13 +76534,13 @@
         <v>21</v>
       </c>
       <c r="F1215" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1215" t="s">
         <v>22</v>
       </c>
       <c r="H1215" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1215" t="s">
         <v>24</v>
@@ -76567,7 +76564,7 @@
         <v>29</v>
       </c>
       <c r="P1215">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q1215">
         <v>5</v>
@@ -76661,7 +76658,7 @@
         <v>29</v>
       </c>
       <c r="H1217" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I1217" t="s">
         <v>24</v>
@@ -77304,13 +77301,13 @@
         <v>21</v>
       </c>
       <c r="F1228" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1228" t="s">
         <v>29</v>
       </c>
       <c r="H1228" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1228" t="s">
         <v>24</v>
@@ -77422,7 +77419,7 @@
         <v>21</v>
       </c>
       <c r="F1230" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1230" t="s">
         <v>29</v>
@@ -77446,13 +77443,13 @@
         <v>27</v>
       </c>
       <c r="N1230" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O1230" t="s">
         <v>29</v>
       </c>
       <c r="P1230">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Q1230">
         <v>4</v>
@@ -78101,13 +78098,13 @@
         <v>22</v>
       </c>
       <c r="P1241">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q1241">
         <v>1</v>
       </c>
       <c r="R1241" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="S1241" t="s">
         <v>30</v>
@@ -78366,13 +78363,13 @@
         <v>21</v>
       </c>
       <c r="F1246" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1246" t="s">
         <v>22</v>
       </c>
       <c r="H1246" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1246" t="s">
         <v>24</v>
@@ -78390,13 +78387,13 @@
         <v>28</v>
       </c>
       <c r="N1246" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O1246" t="s">
         <v>29</v>
       </c>
       <c r="P1246">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q1246">
         <v>2</v>
@@ -79428,13 +79425,13 @@
         <v>21</v>
       </c>
       <c r="F1264" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1264" t="s">
         <v>29</v>
       </c>
       <c r="H1264" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1264" t="s">
         <v>24</v>
@@ -79452,13 +79449,13 @@
         <v>53</v>
       </c>
       <c r="N1264" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O1264" t="s">
         <v>29</v>
       </c>
       <c r="P1264">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q1264">
         <v>1</v>
@@ -79635,7 +79632,7 @@
         <v>22</v>
       </c>
       <c r="P1267">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q1267">
         <v>1</v>
@@ -80496,7 +80493,7 @@
         <v>29</v>
       </c>
       <c r="H1282" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I1282" t="s">
         <v>42</v>
@@ -80903,13 +80900,13 @@
         <v>21</v>
       </c>
       <c r="F1289" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1289" t="s">
         <v>29</v>
       </c>
       <c r="H1289" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1289" t="s">
         <v>24</v>
@@ -80933,7 +80930,7 @@
         <v>22</v>
       </c>
       <c r="P1289">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q1289">
         <v>1</v>
@@ -82201,13 +82198,13 @@
         <v>21</v>
       </c>
       <c r="F1311" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1311" t="s">
         <v>29</v>
       </c>
       <c r="H1311" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1311" t="s">
         <v>24</v>
@@ -82231,7 +82228,7 @@
         <v>22</v>
       </c>
       <c r="P1311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q1311">
         <v>1</v>
@@ -82496,13 +82493,13 @@
         <v>21</v>
       </c>
       <c r="F1316" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1316" t="s">
         <v>29</v>
       </c>
       <c r="H1316" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1316" t="s">
         <v>24</v>
@@ -82520,13 +82517,13 @@
         <v>27</v>
       </c>
       <c r="N1316" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O1316" t="s">
         <v>22</v>
       </c>
       <c r="P1316">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q1316">
         <v>1</v>
@@ -82791,13 +82788,13 @@
         <v>21</v>
       </c>
       <c r="F1321" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1321" t="s">
         <v>29</v>
       </c>
       <c r="H1321" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1321" t="s">
         <v>24</v>
@@ -82815,13 +82812,13 @@
         <v>27</v>
       </c>
       <c r="N1321" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O1321" t="s">
         <v>22</v>
       </c>
       <c r="P1321">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q1321">
         <v>1</v>
@@ -83558,13 +83555,13 @@
         <v>21</v>
       </c>
       <c r="F1334" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1334" t="s">
         <v>29</v>
       </c>
       <c r="H1334" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1334" t="s">
         <v>24</v>
@@ -83582,13 +83579,13 @@
         <v>27</v>
       </c>
       <c r="N1334" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O1334" t="s">
         <v>29</v>
       </c>
       <c r="P1334">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q1334">
         <v>2</v>
@@ -84502,13 +84499,13 @@
         <v>21</v>
       </c>
       <c r="F1350" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1350" t="s">
         <v>29</v>
       </c>
       <c r="H1350" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I1350" t="s">
         <v>24</v>
@@ -84532,7 +84529,7 @@
         <v>29</v>
       </c>
       <c r="P1350">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q1350">
         <v>1</v>
@@ -84915,13 +84912,13 @@
         <v>21</v>
       </c>
       <c r="F1357" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1357" t="s">
         <v>29</v>
       </c>
       <c r="H1357" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1357" t="s">
         <v>24</v>
@@ -84939,13 +84936,13 @@
         <v>53</v>
       </c>
       <c r="N1357" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O1357" t="s">
         <v>29</v>
       </c>
       <c r="P1357">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q1357">
         <v>3</v>
@@ -85151,13 +85148,13 @@
         <v>21</v>
       </c>
       <c r="F1361" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1361" t="s">
         <v>29</v>
       </c>
       <c r="H1361" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1361" t="s">
         <v>24</v>
@@ -85175,13 +85172,13 @@
         <v>53</v>
       </c>
       <c r="N1361" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O1361" t="s">
         <v>29</v>
       </c>
       <c r="P1361">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q1361">
         <v>2</v>
@@ -85299,7 +85296,7 @@
         <v>29</v>
       </c>
       <c r="P1363">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q1363">
         <v>1</v>
@@ -85358,7 +85355,7 @@
         <v>29</v>
       </c>
       <c r="P1364">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Q1364">
         <v>3</v>
@@ -85417,7 +85414,7 @@
         <v>29</v>
       </c>
       <c r="P1365">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q1365">
         <v>7</v>
@@ -86272,13 +86269,13 @@
         <v>21</v>
       </c>
       <c r="F1380" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1380" t="s">
         <v>29</v>
       </c>
       <c r="H1380" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1380" t="s">
         <v>24</v>
@@ -86302,7 +86299,7 @@
         <v>22</v>
       </c>
       <c r="P1380">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q1380">
         <v>1</v>
@@ -86803,13 +86800,13 @@
         <v>21</v>
       </c>
       <c r="F1389" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1389" t="s">
         <v>29</v>
       </c>
       <c r="H1389" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1389" t="s">
         <v>24</v>
@@ -86833,7 +86830,7 @@
         <v>22</v>
       </c>
       <c r="P1389">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q1389">
         <v>1</v>
@@ -86862,13 +86859,13 @@
         <v>21</v>
       </c>
       <c r="F1390" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1390" t="s">
         <v>29</v>
       </c>
       <c r="H1390" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1390" t="s">
         <v>24</v>
@@ -86892,7 +86889,7 @@
         <v>29</v>
       </c>
       <c r="P1390">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q1390">
         <v>3</v>
@@ -87157,13 +87154,13 @@
         <v>21</v>
       </c>
       <c r="F1395" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1395" t="s">
         <v>29</v>
       </c>
       <c r="H1395" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1395" t="s">
         <v>24</v>
@@ -87181,13 +87178,13 @@
         <v>53</v>
       </c>
       <c r="N1395" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O1395" t="s">
         <v>22</v>
       </c>
       <c r="P1395">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q1395">
         <v>1</v>
@@ -87393,7 +87390,7 @@
         <v>21</v>
       </c>
       <c r="F1399" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1399" t="s">
         <v>29</v>
@@ -87423,7 +87420,7 @@
         <v>29</v>
       </c>
       <c r="P1399">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Q1399">
         <v>2</v>
@@ -87629,13 +87626,13 @@
         <v>21</v>
       </c>
       <c r="F1403" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1403" t="s">
         <v>29</v>
       </c>
       <c r="H1403" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1403" t="s">
         <v>24</v>
@@ -87659,7 +87656,7 @@
         <v>22</v>
       </c>
       <c r="P1403">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q1403">
         <v>1</v>
@@ -87842,7 +87839,7 @@
         <v>7</v>
       </c>
       <c r="R1406" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S1406" t="s">
         <v>30</v>
@@ -88101,13 +88098,13 @@
         <v>21</v>
       </c>
       <c r="F1411" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G1411" t="s">
         <v>29</v>
       </c>
       <c r="H1411" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I1411" t="s">
         <v>24</v>
@@ -88131,7 +88128,7 @@
         <v>29</v>
       </c>
       <c r="P1411">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q1411">
         <v>2</v>

--- a/annotation_tamil_psych_verbs.xlsx
+++ b/annotation_tamil_psych_verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SadhanaOldlaptop\Velsadhana\Masterscourse\Linguistics Data Science\Sum sem 2023\Research project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B386E14E-0994-41BC-93ED-ABF211AD9482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE4223F-337D-4E85-84A2-7503262FC527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22610" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22611" uniqueCount="1491">
   <si>
     <t>ID</t>
   </si>
@@ -4885,7 +4885,7 @@
   <dimension ref="A1:S1413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4894,7 +4894,7 @@
     <col min="2" max="2" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -62419,7 +62419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="976" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:19" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="4">
         <v>975</v>
       </c>
@@ -62478,7 +62478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="977" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="4">
         <v>976</v>
       </c>
@@ -62537,7 +62537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="978" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="4">
         <v>977</v>
       </c>
@@ -62596,7 +62596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="979" spans="1:19" ht="2.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="4">
         <v>978</v>
       </c>
@@ -62605,6 +62605,9 @@
       </c>
       <c r="C979" t="s">
         <v>1045</v>
+      </c>
+      <c r="D979" t="s">
+        <v>20</v>
       </c>
       <c r="E979" t="s">
         <v>21</v>
@@ -88199,7 +88202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1413" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1413" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1413" s="4">
         <v>1412</v>
       </c>

--- a/annotation_tamil_psych_verbs.xlsx
+++ b/annotation_tamil_psych_verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SadhanaOldlaptop\Velsadhana\Masterscourse\Linguistics Data Science\Sum sem 2023\Research project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE4223F-337D-4E85-84A2-7503262FC527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD035C7-3ECE-4C66-B756-9DF7018B5160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4885,7 +4885,7 @@
   <dimension ref="A1:S1413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="R218" sqref="R218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5596,7 +5596,7 @@
         <v>10</v>
       </c>
       <c r="R12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S12" t="s">
         <v>30</v>
@@ -9608,7 +9608,7 @@
         <v>17</v>
       </c>
       <c r="R80" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S80" t="s">
         <v>30</v>
@@ -24476,7 +24476,7 @@
         <v>17</v>
       </c>
       <c r="R332" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S332" t="s">
         <v>30</v>
@@ -36512,7 +36512,7 @@
         <v>20</v>
       </c>
       <c r="R536" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S536" t="s">
         <v>30</v>
@@ -40760,7 +40760,7 @@
         <v>22</v>
       </c>
       <c r="R608" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S608" t="s">
         <v>30</v>
@@ -52029,7 +52029,7 @@
         <v>22</v>
       </c>
       <c r="R799" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S799" t="s">
         <v>30</v>
@@ -57516,7 +57516,7 @@
         <v>16</v>
       </c>
       <c r="R892" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S892" t="s">
         <v>30</v>
@@ -59522,7 +59522,7 @@
         <v>18</v>
       </c>
       <c r="R926" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S926" t="s">
         <v>30</v>
@@ -74921,7 +74921,7 @@
         <v>15</v>
       </c>
       <c r="R1187" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S1187" t="s">
         <v>30</v>
@@ -83004,7 +83004,7 @@
         <v>15</v>
       </c>
       <c r="R1324" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S1324" t="s">
         <v>30</v>
@@ -83771,7 +83771,7 @@
         <v>21</v>
       </c>
       <c r="R1337" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S1337" t="s">
         <v>30</v>
@@ -83830,7 +83830,7 @@
         <v>20</v>
       </c>
       <c r="R1338" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S1338" t="s">
         <v>30</v>

--- a/annotation_tamil_psych_verbs.xlsx
+++ b/annotation_tamil_psych_verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SadhanaOldlaptop\Velsadhana\Masterscourse\Linguistics Data Science\Sum sem 2023\Research project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD035C7-3ECE-4C66-B756-9DF7018B5160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8F225B-3300-4EC9-AA12-73EB1E9DA056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4885,7 +4885,7 @@
   <dimension ref="A1:S1413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R218" sqref="R218"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
